--- a/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 2 - Introduction to Data Tables/Main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 2 - Introduction to Data Tables/Main.xlsx
@@ -1431,50 +1431,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3051,8 +3051,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G9"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3107,23 +3107,23 @@
     </row>
     <row r="8" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -3222,68 +3222,68 @@
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="22"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54" t="s">
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="23"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="s">
+      <c r="D22" s="59"/>
+      <c r="E22" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="23"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="s">
+      <c r="D23" s="59"/>
+      <c r="E23" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="54"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="23" t="s">
         <v>28</v>
       </c>
@@ -3292,14 +3292,14 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="64" t="s">
+      <c r="D24" s="61"/>
+      <c r="E24" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="64"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="24"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="33" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="66"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3412,10 +3412,10 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -3536,13 +3536,13 @@
     </row>
     <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="63"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
       <c r="H47" s="5"/>
       <c r="I47" s="1"/>
     </row>
@@ -3699,9 +3699,9 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="1"/>
       <c r="H57" s="5"/>
       <c r="I57" s="1"/>
@@ -3718,13 +3718,13 @@
     </row>
     <row r="59" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="5"/>
       <c r="I59" s="1"/>
     </row>
@@ -3750,14 +3750,14 @@
     </row>
     <row r="62" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -3954,6 +3954,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C27:G30"/>
+    <mergeCell ref="C12:G16"/>
+    <mergeCell ref="C39:G44"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C19:G19"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="C59:G59"/>
@@ -3970,12 +3976,6 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C27:G30"/>
-    <mergeCell ref="C12:G16"/>
-    <mergeCell ref="C39:G44"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -3993,8 +3993,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4060,23 +4060,23 @@
     </row>
     <row r="8" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
@@ -4102,12 +4102,12 @@
     </row>
     <row r="12" spans="2:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4330,10 +4330,10 @@
     </row>
     <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
